--- a/src/spreadsheets/Decimals_Medium.xlsx
+++ b/src/spreadsheets/Decimals_Medium.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\Grade 11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.###"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -73,7 +69,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="2" sqref="B1:B1048576 D1:D1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,5 +2064,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>